--- a/script/omp_wse_output.xlsx
+++ b/script/omp_wse_output.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Progetti\HPC\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E08BD-D221-4BAB-A1C9-EC29C63E8BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005D58F-1DE5-431E-9741-0F64A9B82968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Num. Particles</t>
   </si>
@@ -32,6 +45,9 @@
   </si>
   <si>
     <t>Weak Scaling Efficiency</t>
+  </si>
+  <si>
+    <t>Avg. Weak Scaling Efficiency</t>
   </si>
 </sst>
 </file>
@@ -107,6 +123,902 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-150"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Weak Scaling Efficiency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99626652725554221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0054353420141613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0139589187960947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0173442861276971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.020559256515059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0228396309036571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0234838521945135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0238256089796904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0228924634760634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0224973303799405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93559170799563018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E20-4422-A9AC-0780E0AAAD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1236777376"/>
+        <c:axId val="1236777856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1236777376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236777856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1236777856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236777376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-150"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE7133F-D24F-F866-B60D-708E17BA9154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,19 +1306,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1009"/>
+  <dimension ref="A1:G1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A956" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +1334,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
@@ -433,8 +1351,12 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -447,8 +1369,12 @@
       <c r="D3">
         <v>0.94245633951286767</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=2")</f>
+        <v>0.99626652725554221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -461,8 +1387,12 @@
       <c r="D4">
         <v>0.94694443708919529</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=3")</f>
+        <v>1.0054353420141613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -475,8 +1405,12 @@
       <c r="D5">
         <v>1.0533173530051481</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=4")</f>
+        <v>1.0139589187960947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -489,8 +1423,12 @@
       <c r="D6">
         <v>0.9954436158163058</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=5")</f>
+        <v>1.0173442861276971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -503,8 +1441,12 @@
       <c r="D7">
         <v>0.98499130283711844</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=6")</f>
+        <v>1.020559256515059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>500</v>
       </c>
@@ -517,8 +1459,12 @@
       <c r="D8">
         <v>0.99015824334973279</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=7")</f>
+        <v>1.0228396309036571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -531,8 +1477,12 @@
       <c r="D9">
         <v>0.99987956082715901</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=8")</f>
+        <v>1.0234838521945135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500</v>
       </c>
@@ -545,8 +1495,12 @@
       <c r="D10">
         <v>0.98323104319026822</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=9")</f>
+        <v>1.0238256089796904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -559,8 +1513,12 @@
       <c r="D11">
         <v>0.95614644860889453</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=10")</f>
+        <v>1.0228924634760634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>500</v>
       </c>
@@ -573,8 +1531,12 @@
       <c r="D12">
         <v>0.9858539378260317</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=11")</f>
+        <v>1.0224973303799405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
@@ -587,8 +1549,12 @@
       <c r="D13">
         <v>0.95433290362840661</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=12")</f>
+        <v>0.93559170799563018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>600</v>
       </c>
@@ -602,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>600</v>
       </c>
@@ -13204,5 +14170,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/script/omp_wse_output.xlsx
+++ b/script/omp_wse_output.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Progetti\HPC\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005D58F-1DE5-431E-9741-0F64A9B82968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67810484-5F7A-493A-8468-DBACDA284097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -172,8 +176,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -190,29 +195,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$13</c:f>
@@ -223,42 +214,41 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99626652725554221</c:v>
+                  <c:v>1.0012639852269649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0054353420141613</c:v>
+                  <c:v>1.0095896820326771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0139589187960947</c:v>
+                  <c:v>1.0149619659226323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0173442861276971</c:v>
+                  <c:v>1.0183959753128715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.020559256515059</c:v>
+                  <c:v>1.0194513019338485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0228396309036571</c:v>
+                  <c:v>1.0222581065286183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0234838521945135</c:v>
+                  <c:v>1.0239704609117659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0238256089796904</c:v>
+                  <c:v>1.0232248323805078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0228924634760634</c:v>
+                  <c:v>1.0248330610830729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0224973303799405</c:v>
+                  <c:v>1.0213315858739469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93559170799563018</c:v>
+                  <c:v>0.93273625547723671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E20-4422-A9AC-0780E0AAAD8E}"/>
@@ -273,11 +263,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1236777376"/>
         <c:axId val="1236777856"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1236777376"/>
         <c:scaling>
@@ -1309,7 +1298,7 @@
   <dimension ref="A1:G1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=1")</f>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=1")</f>
         <v>1</v>
       </c>
     </row>
@@ -1370,8 +1359,8 @@
         <v>0.94245633951286767</v>
       </c>
       <c r="G3">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=2")</f>
-        <v>0.99626652725554221</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=2")</f>
+        <v>1.0012639852269649</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1388,8 +1377,8 @@
         <v>0.94694443708919529</v>
       </c>
       <c r="G4">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=3")</f>
-        <v>1.0054353420141613</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=3")</f>
+        <v>1.0095896820326771</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1406,8 +1395,8 @@
         <v>1.0533173530051481</v>
       </c>
       <c r="G5">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=4")</f>
-        <v>1.0139589187960947</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=4")</f>
+        <v>1.0149619659226323</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,8 +1413,8 @@
         <v>0.9954436158163058</v>
       </c>
       <c r="G6">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=5")</f>
-        <v>1.0173442861276971</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=5")</f>
+        <v>1.0183959753128715</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,8 +1431,8 @@
         <v>0.98499130283711844</v>
       </c>
       <c r="G7">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=6")</f>
-        <v>1.020559256515059</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=6")</f>
+        <v>1.0194513019338485</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1460,8 +1449,8 @@
         <v>0.99015824334973279</v>
       </c>
       <c r="G8">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=7")</f>
-        <v>1.0228396309036571</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=7")</f>
+        <v>1.0222581065286183</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1478,8 +1467,8 @@
         <v>0.99987956082715901</v>
       </c>
       <c r="G9">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=8")</f>
-        <v>1.0234838521945135</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=8")</f>
+        <v>1.0239704609117659</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,8 +1485,8 @@
         <v>0.98323104319026822</v>
       </c>
       <c r="G10">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=9")</f>
-        <v>1.0238256089796904</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=9")</f>
+        <v>1.0232248323805078</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,8 +1503,8 @@
         <v>0.95614644860889453</v>
       </c>
       <c r="G11">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=10")</f>
-        <v>1.0228924634760634</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=10")</f>
+        <v>1.0248330610830729</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,8 +1521,8 @@
         <v>0.9858539378260317</v>
       </c>
       <c r="G12">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=11")</f>
-        <v>1.0224973303799405</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=11")</f>
+        <v>1.0213315858739469</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1550,8 +1539,8 @@
         <v>0.95433290362840661</v>
       </c>
       <c r="G13">
-        <f>AVERAGEIFS(D$2:D$690, $B$2:$B$690, "=12")</f>
-        <v>0.93559170799563018</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=12")</f>
+        <v>0.93273625547723671</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/script/omp_wse_output.xlsx
+++ b/script/omp_wse_output.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Progetti\HPC\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67810484-5F7A-493A-8468-DBACDA284097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB786D6-5530-468F-A1E9-444E41CD3C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-28695" yWindow="1410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$13</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -144,6 +140,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weak Scaling Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -274,6 +295,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N. of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -339,6 +415,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1298,7 +1429,7 @@
   <dimension ref="A1:G1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
